--- a/Test Cases/Iteration 8/Iteration 8 Test Cases.xlsx
+++ b/Test Cases/Iteration 8/Iteration 8 Test Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="1430" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="4880" yWindow="1430" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="271">
   <si>
     <t>No</t>
   </si>
@@ -1272,9 +1272,6 @@
     </r>
   </si>
   <si>
-    <t>Ranking - Referral</t>
-  </si>
-  <si>
     <t xml:space="preserve">Select Criteria: Referral
 Start Date: 1 Jan 2015
 End Date: 31 Jan 2015
@@ -1524,9 +1521,19 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Rank, Specialty, Number of Engagement
-1</t>
+    <t xml:space="preserve">Clear all data (if any) in database and bootstrap ‘KPI Analysis’ file in the Iteration 8 bootstrap folder </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rank, Doctor, Number of Appointment, Clinic, Specialty</t>
     </r>
     <r>
       <rPr>
@@ -1536,12 +1543,47 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">, Medicine - Gastroenterology, 6
-2, Obs &amp; Gynae, 3
-2, Surgery - Orthopaedics, 3
-4, Dental, 2
+      <t xml:space="preserve">
+1, Kelvin Thia Teck Joo, 2, Hope Gastroenterology Liver Clinic, Medicine - Gastroenterology
+1, Lo Ngai Nung, 2, SGH Specialist Practice, Surgery - Orthopaedics
+1, Ng Kheng Hong, 2, KH Ng Colorectal &amp; Minimally Invasive Surgery, Surgery - General
+1, Tay Chong Kam, 2, Tay Orthopaedic Clinic Pte Ltd, Surgery - Orthopaedics
 </t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rank 5 - Number of Appointment 1 :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Adrain Saurajen Siew Ming, 1
+Andrew Loy Heng Chian, 1 
+Ang Peng Tiam, 1
+Kevin Tan Eng Kiat, 1
+Leonard Koh Kia Hui, 1
+Leong See Odd, 1
+Lim Lee Guan, 1
+Maurice Choo Hock Heng, 1
+Tay Hin Ngan, 1
+Tham Kok Fun, 1
+Timothy Lee Kam-Yiu, 1</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1551,7 +1593,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Rank 5:</t>
+      <t xml:space="preserve">Compare with Previous Month </t>
     </r>
     <r>
       <rPr>
@@ -1562,18 +1604,401 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Medicine - Endocrinology, 1
-Medicine - Oncology, 1
-Surgery - Cardio, 1
-Surgery - ENT, 1
-Surgery - Eye, 1
-Surgery - Neuro, 1
-Surgery - Plastic, 1
-Surgery - Urology, 1</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Clear all data (if any) in database and bootstrap ‘KPI Analysis’ file in the Iteration 8 bootstrap folder </t>
+Dec 2014 -  0 Indo Visa : 0 Non-Indo Visa
+                    / No result 
+Jan 2015 -  7 Indo Visa : 5 Non-Indo Visa
+Increase / Decrease - 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Jan 2014  - 0 Indo Visa :   0 Non-Indo Visa       
+                  / No result
+Jan 2015 - 7 Indo Visa : 5 Non-Indo Visa
+Increase / Decrease - </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dec 2015 - 2 Indo Visa : 4 Non-Indo Visa
+Jan 2016 - 3 Indo Visa : 3 Non-Indo Visa
+Increase / Decrease -
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Jan 2015  - 7 Indo Visa :   5 Non-Indo Visa
+Jan 2016 - 3 Indo Visa : 3 Non-Indo Visa
+Increase / Decrease - </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+May 2016 -  5 Indo Visa : 1 Non-Indo Visa
+June 2016 -  2 Indo Visa : 2 Non-Indo Visa
+Increase / Decrease - 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+June 2015  -  7 Indo Visa :  4  Non-Indo Visa
+June 2016 -  2 Indo Visa : 2 Non-Indo Visa
+Increase / Decrease - </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dec 2014 -  0 Inpatient :  0 Outpatient
+                    / No result 
+Jan 2015 -   10 Inpatient :  19 Outpatient
+Increase / Decrease -
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Jan 2014  -  0 Inpatient :  0 Outpatient       
+                  / No result
+Jan 2015 -  10 Inpatient : 19  Outpatient
+Increase / Decrease -</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dec 2015 - 5 Inpatient : 27 Outpatient
+Jan 2016 -  7 Inpatient : 25 Outpatient
+Increase / Decrease - 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Jan 2015  - 10 Inpatient : 19  Outpatient
+Jan 2016 -  7 Inpatient : 25 Outpatient
+Increase / Decrease -</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+May 2016 - 10 Inpatient : 26 Outpatient
+June 2016 - 5 Inpatient : 7 Outpatient
+Increase / Decrease - 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+June 2015  - 11 Inpatient : 13 Outpatient
+June 2016 -  5 Inpatient : 7 Outpatient
+Increase / Decrease -</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Compare with Previous Month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Nov 2016 - 10 Inpatient : 14 Outpatient
+Dec 2016 - 8 Inpatient : 19 Outpatient
+Increase / Decrease -
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dec 2015  -5 Inpatient : 27 Outpatient
+Dec 2016 - 8 Inpatient : 19 Outpatient
+Increase / Decrease - </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Nov 2016 - 0 Indo Visa : 3 Non-Indo Visa
+Dec 2016 - 11 Indo Visa : 8 Non-Indo Visa
+Increase / Decrease -
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dec 2015  - 2 Indo Visa :  4 Non-Indo Visa
+Dec 2016 - 11 Indo Visa : 8 Non-Indo Visa
+Increase / Decrease - </t>
+    </r>
   </si>
   <si>
     <r>
@@ -1633,6 +2058,7 @@
 Lim Hong Liang
 Lim Tai Tian
 Nicholas Chua Hai Liang
+Ong Kian Chung
 Philip Eng Cher Tiew
 Philip Koh Siam Soon
 Tan Eng Choon
@@ -1696,21 +2122,14 @@
 Ronald Brett
 Sam Peh Oon Hui
 Tan Khai Tong
-+D4Timothy Lee Kam-Yiu
+Timothy Lee Kam-Yiu
 Wong Poo Sing</t>
     </r>
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Rank, Doctor, Number of Appointment, Clinic, Specialty</t>
+      <t>Rank, Specialty, Number of Engagement
+1</t>
     </r>
     <r>
       <rPr>
@@ -1720,47 +2139,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-1, Kelvin Thia Teck Joo, 2, Hope Gastroenterology Liver Clinic, Medicine - Gastroenterology
-1, Lo Ngai Nung, 2, SGH Specialist Practice, Surgery - Orthopaedics
-1, Ng Kheng Hong, 2, KH Ng Colorectal &amp; Minimally Invasive Surgery, Surgery - General
-1, Tay Chong Kam, 2, Tay Orthopaedic Clinic Pte Ltd, Surgery - Orthopaedics
+      <t xml:space="preserve">, Medicine - Gastroenterology, 6
+2, Obs &amp; Gynae, 3
+2, Surgery - Orthopaedics, 3
+4, Dental, 2
 </t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Rank 5 - Number of Appointment 1 :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Adrain Saurajen Siew Ming, 1
-Andrew Loy Heng Chian, 1 
-Ang Peng Tiam, 1
-Kevin Tan Eng Kiat, 1
-Leonard Koh Kia Hui, 1
-Leong See Odd, 1
-Lim Lee Guan, 1
-Maurice Choo Hock Heng, 1
-Tay Hin Ngan, 1
-Tham Kok Fun, 1
-Timothy Lee Kam-Yiu, 1</t>
-    </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -1770,7 +2154,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
+      <t>Rank 5:</t>
     </r>
     <r>
       <rPr>
@@ -1781,408 +2165,47 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Dec 2014 -  0 Indo Visa : 0 Non-Indo Visa
-                    / No result 
-Jan 2015 -  7 Indo Visa : 5 Non-Indo Visa
-Increase / Decrease - 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+Medicine - Endocrinology, 1
+Medicine - Oncology, 1
+Medicine - Renel, 1
+Surgery - Cardio, 1
+Surgery - ENT, 1
+Surgery - Eye, 1
+Surgery - Neuro, 1
+Surgery - Plastic, 1
+Surgery - Urology, 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ranking - Referral </t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Jan 2014  - 0 Indo Visa :   0 Non-Indo Visa       
-                  / No result
-Jan 2015 - 7 Indo Visa : 5 Non-Indo Visa
-Increase / Decrease - </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dec 2015 - 2 Indo Visa : 4 Non-Indo Visa
-Jan 2016 - 3 Indo Visa : 3 Non-Indo Visa
-Increase / Decrease -
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Jan 2015  - 7 Indo Visa :   5 Non-Indo Visa
-Jan 2016 - 3 Indo Visa : 3 Non-Indo Visa
-Increase / Decrease - </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-May 2016 -  5 Indo Visa : 1 Non-Indo Visa
-June 2016 -  2 Indo Visa : 2 Non-Indo Visa
-Increase / Decrease - 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-June 2015  -  7 Indo Visa :  4  Non-Indo Visa
-June 2016 -  2 Indo Visa : 2 Non-Indo Visa
-Increase / Decrease - </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Nov 2016 - 0 Indo Visa : 2 Non-Indo Visa
-Dec 2016 - 8 Indo Visa : 7 Non-Indo Visa
-Increase / Decrease -
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dec 2015  - 2 Indo Visa :  4 Non-Indo Visa
-Dec 2016 - 8 Indo Visa : 7 Non-Indo Visa
-Increase / Decrease - </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dec 2014 -  0 Inpatient :  0 Outpatient
-                    / No result 
-Jan 2015 -   10 Inpatient :  19 Outpatient
-Increase / Decrease -
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Jan 2014  -  0 Inpatient :  0 Outpatient       
-                  / No result
-Jan 2015 -  10 Inpatient : 19  Outpatient
-Increase / Decrease -</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dec 2015 - 5 Inpatient : 27 Outpatient
-Jan 2016 -  7 Inpatient : 25 Outpatient
-Increase / Decrease - 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Jan 2015  - 10 Inpatient : 19  Outpatient
-Jan 2016 -  7 Inpatient : 25 Outpatient
-Increase / Decrease -</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-May 2016 - 10 Inpatient : 26 Outpatient
-June 2016 - 5 Inpatient : 7 Outpatient
-Increase / Decrease - 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-June 2015  - 11 Inpatient : 13 Outpatient
-June 2016 -  5 Inpatient : 7 Outpatient
-Increase / Decrease -</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Compare with Previous Month</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-Nov 2016 - 10 Inpatient : 14 Outpatient
-Dec 2016 - 8 Inpatient : 19 Outpatient
-Increase / Decrease -
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dec 2015  -5 Inpatient : 27 Outpatient
-Dec 2016 - 8 Inpatient : 19 Outpatient
-Increase / Decrease - </t>
-    </r>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(true &amp; false for medical and visa)</t>
+    </r>
+  </si>
+  <si>
+    <t>Search Clients</t>
+  </si>
+  <si>
+    <t>Search "Ali" in the Client List search box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The table should display all clients that contains "Ali"  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2217,6 +2240,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2849,8 +2879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2874,7 +2904,7 @@
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="18"/>
@@ -2913,23 +2943,23 @@
         <v>238</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="387.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="403" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="15" t="s">
         <v>237</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2938,14 +2968,14 @@
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="15" t="s">
         <v>237</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>240</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -2954,7 +2984,7 @@
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="15" t="s">
         <v>241</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -2970,7 +3000,7 @@
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="15" t="s">
         <v>244</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -2982,18 +3012,18 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" ht="231.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="247" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="15" t="s">
         <v>241</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>247</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -3002,7 +3032,7 @@
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="15" t="s">
         <v>244</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -3018,14 +3048,14 @@
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="16" t="s">
         <v>251</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>252</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -3034,14 +3064,14 @@
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>250</v>
+      <c r="B12" s="15" t="s">
+        <v>267</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -3050,14 +3080,14 @@
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>250</v>
+      <c r="B13" s="15" t="s">
+        <v>267</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>240</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -3184,6 +3214,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3191,8 +3222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3212,7 +3243,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B2" s="13"/>
     </row>
@@ -3247,42 +3278,42 @@
         <v>228</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="15" t="s">
         <v>227</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>229</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="15" t="s">
         <v>227</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>230</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="15" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -3296,56 +3327,56 @@
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="15" t="s">
         <v>232</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>233</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="15" t="s">
         <v>232</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>234</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="15" t="s">
         <v>232</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>235</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="15" t="s">
         <v>232</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>236</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -3666,10 +3697,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F248"/>
+  <dimension ref="A1:F247"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3791,81 +3822,89 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="155" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>118</v>
+        <v>268</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>130</v>
+        <v>269</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>145</v>
+        <v>270</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="325.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="155" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="155" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="325.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="155" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3879,13 +3918,13 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -3899,13 +3938,12 @@
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -5225,9 +5263,6 @@
       <c r="E239" s="2"/>
     </row>
     <row r="240" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
-      <c r="D240" s="2"/>
       <c r="E240" s="2"/>
     </row>
     <row r="241" spans="5:5" x14ac:dyDescent="0.35">
@@ -5250,9 +5285,6 @@
     </row>
     <row r="247" spans="5:5" x14ac:dyDescent="0.35">
       <c r="E247" s="2"/>
-    </row>
-    <row r="248" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E248" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test Cases/Iteration 8/Iteration 8 Test Cases.xlsx
+++ b/Test Cases/Iteration 8/Iteration 8 Test Cases.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="1430" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="4880" yWindow="1430" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId1"/>
-    <sheet name="8 - Ranking" sheetId="26" r:id="rId2"/>
-    <sheet name="8 - KPI" sheetId="25" r:id="rId3"/>
-    <sheet name="7-Bootstrap" sheetId="22" r:id="rId4"/>
-    <sheet name="7-Clients" sheetId="24" r:id="rId5"/>
-    <sheet name="6-Screenings" sheetId="23" r:id="rId6"/>
-    <sheet name="3-Login &amp; Account Management" sheetId="21" r:id="rId7"/>
+    <sheet name="8 - GenderNAge Report" sheetId="27" state="hidden" r:id="rId2"/>
+    <sheet name="8 - Ranking" sheetId="26" r:id="rId3"/>
+    <sheet name="8 - KPI" sheetId="25" r:id="rId4"/>
+    <sheet name="7-Bootstrap" sheetId="22" r:id="rId5"/>
+    <sheet name="7-Clients" sheetId="24" r:id="rId6"/>
+    <sheet name="6-Screenings" sheetId="23" r:id="rId7"/>
+    <sheet name="3-Login &amp; Account Management" sheetId="21" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="289">
   <si>
     <t>No</t>
   </si>
@@ -2199,6 +2200,78 @@
   </si>
   <si>
     <t xml:space="preserve">The table should display all clients that contains "Ali"  </t>
+  </si>
+  <si>
+    <t>0 - 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number  1
+%               1</t>
+  </si>
+  <si>
+    <t>11 - 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number  1
+%               2</t>
+  </si>
+  <si>
+    <t>21 - 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   1
+%               3</t>
+  </si>
+  <si>
+    <t>31 - 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   1
+%               4</t>
+  </si>
+  <si>
+    <t>41 - 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   1
+%               5</t>
+  </si>
+  <si>
+    <t>51 - 60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   1
+%               6</t>
+  </si>
+  <si>
+    <t>61 - 70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   1
+%               7</t>
+  </si>
+  <si>
+    <t>71 - 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   1
+%               8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80 and above </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   1
+%               9</t>
   </si>
 </sst>
 </file>
@@ -2278,7 +2351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2330,6 +2403,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2877,10 +2962,162 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="30.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
+        <v>1</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+    </row>
+    <row r="5" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="7"/>
+      <c r="B5" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="7"/>
+      <c r="B6" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+    </row>
+    <row r="7" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="7"/>
+      <c r="B7" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+    </row>
+    <row r="8" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="7"/>
+      <c r="B8" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="7"/>
+      <c r="B9" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+    </row>
+    <row r="10" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="7"/>
+      <c r="B10" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+    </row>
+    <row r="11" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="7"/>
+      <c r="B11" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+    </row>
+    <row r="12" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="7"/>
+      <c r="B12" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3218,36 +3455,36 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.58203125" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="39.5" customWidth="1"/>
-    <col min="5" max="5" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="56" customWidth="1"/>
+    <col min="5" max="5" width="12.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>226</v>
       </c>
       <c r="B1" s="13"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>254</v>
       </c>
       <c r="B2" s="13"/>
     </row>
-    <row r="3" spans="1:6" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -3379,17 +3616,37 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+    <row r="12" spans="1:6" ht="247" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="354.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
@@ -3426,6 +3683,90 @@
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3433,7 +3774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
@@ -3695,11 +4036,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F247"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -5291,7 +5632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I45"/>
   <sheetViews>
@@ -6090,7 +6431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J132"/>
   <sheetViews>

--- a/Test Cases/Iteration 8/Iteration 8 Test Cases.xlsx
+++ b/Test Cases/Iteration 8/Iteration 8 Test Cases.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="1430" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="4880" yWindow="1430" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId1"/>
-    <sheet name="8 - GenderNAge Report" sheetId="27" state="hidden" r:id="rId2"/>
+    <sheet name="8 - GenderNAge Report" sheetId="27" r:id="rId2"/>
     <sheet name="8 - Ranking" sheetId="26" r:id="rId3"/>
     <sheet name="8 - KPI" sheetId="25" r:id="rId4"/>
     <sheet name="7-Bootstrap" sheetId="22" r:id="rId5"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="289">
   <si>
     <t>No</t>
   </si>
@@ -1635,369 +1635,6 @@
 Jan 2014  - 0 Indo Visa :   0 Non-Indo Visa       
                   / No result
 Jan 2015 - 7 Indo Visa : 5 Non-Indo Visa
-Increase / Decrease - </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dec 2015 - 2 Indo Visa : 4 Non-Indo Visa
-Jan 2016 - 3 Indo Visa : 3 Non-Indo Visa
-Increase / Decrease -
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Jan 2015  - 7 Indo Visa :   5 Non-Indo Visa
-Jan 2016 - 3 Indo Visa : 3 Non-Indo Visa
-Increase / Decrease - </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-May 2016 -  5 Indo Visa : 1 Non-Indo Visa
-June 2016 -  2 Indo Visa : 2 Non-Indo Visa
-Increase / Decrease - 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-June 2015  -  7 Indo Visa :  4  Non-Indo Visa
-June 2016 -  2 Indo Visa : 2 Non-Indo Visa
-Increase / Decrease - </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dec 2014 -  0 Inpatient :  0 Outpatient
-                    / No result 
-Jan 2015 -   10 Inpatient :  19 Outpatient
-Increase / Decrease -
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Jan 2014  -  0 Inpatient :  0 Outpatient       
-                  / No result
-Jan 2015 -  10 Inpatient : 19  Outpatient
-Increase / Decrease -</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dec 2015 - 5 Inpatient : 27 Outpatient
-Jan 2016 -  7 Inpatient : 25 Outpatient
-Increase / Decrease - 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Jan 2015  - 10 Inpatient : 19  Outpatient
-Jan 2016 -  7 Inpatient : 25 Outpatient
-Increase / Decrease -</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-May 2016 - 10 Inpatient : 26 Outpatient
-June 2016 - 5 Inpatient : 7 Outpatient
-Increase / Decrease - 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-June 2015  - 11 Inpatient : 13 Outpatient
-June 2016 -  5 Inpatient : 7 Outpatient
-Increase / Decrease -</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Compare with Previous Month</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-Nov 2016 - 10 Inpatient : 14 Outpatient
-Dec 2016 - 8 Inpatient : 19 Outpatient
-Increase / Decrease -
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dec 2015  -5 Inpatient : 27 Outpatient
-Dec 2016 - 8 Inpatient : 19 Outpatient
-Increase / Decrease - </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Nov 2016 - 0 Indo Visa : 3 Non-Indo Visa
-Dec 2016 - 11 Indo Visa : 8 Non-Indo Visa
-Increase / Decrease -
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dec 2015  - 2 Indo Visa :  4 Non-Indo Visa
-Dec 2016 - 11 Indo Visa : 8 Non-Indo Visa
 Increase / Decrease - </t>
     </r>
   </si>
@@ -2205,11 +1842,6 @@
     <t>0 - 10</t>
   </si>
   <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number  1
-%               1</t>
-  </si>
-  <si>
     <t>11 - 20</t>
   </si>
   <si>
@@ -2272,6 +1904,374 @@
     <t xml:space="preserve">                 Male : Female : Unknown
 Number   1
 %               9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dec 2015 - 2 Indo Visa : 4 Non-Indo Visa
+Jan 2016 - 3 Indo Visa : 3 Non-Indo Visa
+Increase / Decrease :  50% Indo Visa : -25% non-indo visa
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Jan 2015  - 7 Indo Visa :   5 Non-Indo Visa
+Jan 2016 - 3 Indo Visa : 3 Non-Indo Visa
+Increase / Decrease : -57% visa :  -40% non-visa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+May 2016 -  5 Indo Visa : 1 Non-Indo Visa
+June 2016 -  2 Indo Visa : 2 Non-Indo Visa
+Increase / Decrease : -60% indo : 100% non-indo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+June 2015  -  7 Indo Visa :  4  Non-Indo Visa
+June 2016 -  2 Indo Visa : 2 Non-Indo Visa
+Increase / Decrease : -72% : -50% </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Nov 2016 - 0 Indo Visa : 3 Non-Indo Visa
+Dec 2016 - 11 Indo Visa : 8 Non-Indo Visa
+Increase / Decrease  - : 167% non-indo 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dec 2015  - 2 Indo Visa :  4 Non-Indo Visa
+Dec 2016 - 11 Indo Visa : 8 Non-Indo Visa
+Increase / Decrease: 450% : 100% </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dec 2014 -  0 Inpatient :  0 Outpatient
+                    / No result 
+Jan 2015 -   10 Inpatient :  19 Outpatient
+Increase / Decrease : -   
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Jan 2014  -  0 Inpatient :  0 Outpatient       
+                  / No result
+Jan 2015 -  10 Inpatient : 19  Outpatient
+Increase / Decrease : - </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dec 2015 - 5 Inpatient : 27 Outpatient
+Jan 2016 -  7 Inpatient : 25 Outpatient
+Increase / Decrease 40%: -8%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Jan 2015  - 10 Inpatient : 19  Outpatient
+Jan 2016 -  7 Inpatient : 25 Outpatient
+Increase / Decrease : -30% : 32% </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+May 2016 - 10 Inpatient : 26 Outpatient
+June 2016 - 5 Inpatient : 7 Outpatient
+Increase / Decrease : -50% : -73% 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+June 2015  - 11 Inpatient : 13 Outpatient
+June 2016 -  5 Inpatient : 7 Outpatient
+Increase / Decrease : -54% : -46% </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Compare with Previous Month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Nov 2016 - 10 Inpatient : 14 Outpatient
+Dec 2016 - 8 Inpatient : 19 Outpatient
+Increase / Decrease  :   -20% :36% 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dec 2015  -5 Inpatient : 27 Outpatient
+Dec 2016 - 8 Inpatient : 19 Outpatient
+Increase / Decrease - 60% : -30%</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number  3        : 3             : 
+%               1</t>
   </si>
 </sst>
 </file>
@@ -2964,8 +2964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3011,10 +3011,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -3022,10 +3022,10 @@
     <row r="5" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="23" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -3033,10 +3033,10 @@
     <row r="6" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A6" s="7"/>
       <c r="B6" s="23" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -3044,10 +3044,10 @@
     <row r="7" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
       <c r="B7" s="23" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -3055,10 +3055,10 @@
     <row r="8" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="23" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -3066,10 +3066,10 @@
     <row r="9" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="23" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -3077,10 +3077,10 @@
     <row r="10" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="23" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -3088,10 +3088,10 @@
     <row r="11" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="23" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -3099,10 +3099,10 @@
     <row r="12" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="23" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -3116,8 +3116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3196,7 +3196,7 @@
         <v>239</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -3212,7 +3212,7 @@
         <v>240</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -3260,7 +3260,7 @@
         <v>247</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -3286,7 +3286,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>250</v>
@@ -3302,7 +3302,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>239</v>
@@ -3318,7 +3318,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>240</v>
@@ -3459,8 +3459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3529,7 +3529,7 @@
         <v>229</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
@@ -3543,7 +3543,7 @@
         <v>230</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
@@ -3557,7 +3557,7 @@
         <v>231</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="170.5" x14ac:dyDescent="0.35">
@@ -3571,7 +3571,7 @@
         <v>233</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
@@ -3585,7 +3585,7 @@
         <v>234</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
@@ -3599,7 +3599,7 @@
         <v>235</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
@@ -3613,38 +3613,22 @@
         <v>236</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="247" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
-        <v>9</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>252</v>
-      </c>
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" ht="354.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>253</v>
-      </c>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
     </row>
@@ -4168,13 +4152,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E8" s="2"/>
     </row>

--- a/Test Cases/Iteration 8/Iteration 8 Test Cases.xlsx
+++ b/Test Cases/Iteration 8/Iteration 8 Test Cases.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId1"/>
-    <sheet name="8 - GenderNAge Report" sheetId="27" r:id="rId2"/>
+    <sheet name="9 - GenderNAge Report" sheetId="27" r:id="rId2"/>
     <sheet name="8 - Ranking" sheetId="26" r:id="rId3"/>
     <sheet name="8 - KPI" sheetId="25" r:id="rId4"/>
     <sheet name="7-Bootstrap" sheetId="22" r:id="rId5"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="294">
   <si>
     <t>No</t>
   </si>
@@ -1845,65 +1845,25 @@
     <t>11 - 20</t>
   </si>
   <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number  1
-%               2</t>
-  </si>
-  <si>
     <t>21 - 30</t>
   </si>
   <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number   1
-%               3</t>
-  </si>
-  <si>
     <t>31 - 40</t>
   </si>
   <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number   1
-%               4</t>
-  </si>
-  <si>
     <t>41 - 50</t>
   </si>
   <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number   1
-%               5</t>
-  </si>
-  <si>
     <t>51 - 60</t>
   </si>
   <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number   1
-%               6</t>
-  </si>
-  <si>
     <t>61 - 70</t>
   </si>
   <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number   1
-%               7</t>
-  </si>
-  <si>
     <t>71 - 80</t>
   </si>
   <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number   1
-%               8</t>
-  </si>
-  <si>
     <t xml:space="preserve">80 and above </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number   1
-%               9</t>
   </si>
   <si>
     <r>
@@ -2270,8 +2230,72 @@
   </si>
   <si>
     <t xml:space="preserve">                 Male : Female : Unknown
-Number  3        : 3             : 
-%               1</t>
+Number  3        :    3          :  32
+Gender% 50    :    50
+Overall%              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number     3     :      4        : 25
+Gender %  43   :   57    
+Overall%           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   1      :        4      :       37
+Gender %  20  :  80    
+Overall%              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   14  :  13 : 95 
+Gender % 52 : 48      
+Overall%             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number  11   : 8 : 97 
+Gender %  58 :   42  
+Overall%       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   18       :     5         : 83 
+Gender %      78 : 22
+Overall%              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   7  :   4   : 63
+Gender %     64 : 36  
+Overall%        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   4      :     2          :      28 
+Gender %   67 : 33    
+Overall%           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   0       :  2            : 5 
+Gender %   0 : 100   
+Overall%             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">569 Clients with Age without Gender </t>
+  </si>
+  <si>
+    <t xml:space="preserve">106 Clients with Age and Gender </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Female with no bd, 1 male with no bd, 100 clients without bd and gender </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[NEED RECONFIRM] 668 Unique Clients </t>
+  </si>
+  <si>
+    <t>Current Iteration: 9</t>
   </si>
 </sst>
 </file>
@@ -2962,10 +2986,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2977,7 +3001,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>226</v>
+        <v>293</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="5"/>
@@ -2989,126 +3013,153 @@
       <c r="B2" s="22"/>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="19" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B7" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E7" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
+    <row r="8" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B8" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-    </row>
-    <row r="5" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="7"/>
-      <c r="B5" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
-      <c r="B6" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-    </row>
-    <row r="7" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
-      <c r="B7" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-    </row>
-    <row r="8" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="7"/>
-      <c r="B8" s="23" t="s">
-        <v>271</v>
-      </c>
       <c r="C8" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
     </row>
-    <row r="9" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="23" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
     </row>
-    <row r="10" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="23" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
     </row>
-    <row r="11" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="23" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:5" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="23" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
     </row>
+    <row r="13" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A13" s="7"/>
+      <c r="B13" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+    </row>
+    <row r="14" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A14" s="7"/>
+      <c r="B14" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+    </row>
+    <row r="15" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A15" s="7"/>
+      <c r="B15" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+    </row>
+    <row r="16" spans="1:5" ht="62" x14ac:dyDescent="0.35">
+      <c r="A16" s="7"/>
+      <c r="B16" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3529,7 +3580,7 @@
         <v>229</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
@@ -3543,7 +3594,7 @@
         <v>230</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
@@ -3557,7 +3608,7 @@
         <v>231</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="170.5" x14ac:dyDescent="0.35">
@@ -3571,7 +3622,7 @@
         <v>233</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
@@ -3585,7 +3636,7 @@
         <v>234</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
@@ -3599,7 +3650,7 @@
         <v>235</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
@@ -3613,7 +3664,7 @@
         <v>236</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">

--- a/Test Cases/Iteration 8/Iteration 8 Test Cases.xlsx
+++ b/Test Cases/Iteration 8/Iteration 8 Test Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4880" yWindow="1430" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="4880" yWindow="1430" windowWidth="25520" windowHeight="15540" tabRatio="674" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Client -  CRUD" sheetId="17" state="hidden" r:id="rId1"/>
@@ -1152,52 +1152,6 @@
 Click 'Generate Results' </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Rank, Specialty, Number of Engagement
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1, Surgery - Orthopaedics, 4
-2, Medicine - Gastroenterology, 3
-2, Surgery - ENT, 3
-4, Medicine - Endocrinology, 2
-4, Medicine - Oncology, 2
-4, Obs &amp; Gynae, 2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-4, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Surgery - General, 2
-8, Medicine - Cardiology, 1
-8, Medicine - Renal, 1
-8, Surgery - Neuro, 1</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Ranking - Speciality (View Doctor List) </t>
   </si>
   <si>
@@ -1291,101 +1245,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">1. Melivon, 7
-2, Mostfizur, 4
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Rank 3: 3 Cases</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Andreas
-Ninik
-SMG 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Rank 6: 2 Cases</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-AAIJ
-EMA
-ULINK
-US Emb
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Rank 10 : 1 Case</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-AAIS
-Dr. Sherly
-MedikaPlaza</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Rank, Referred By, Number of Referred Cases 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">1, AAIS, 7
 1, US Emb, 7
 3, AAIJ, 4
@@ -1444,9 +1303,19 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Rank, Referred By, Number of Referred Cases 
-</t>
+    <t xml:space="preserve">Clear all data (if any) in database and bootstrap ‘KPI Analysis’ file in the Iteration 8 bootstrap folder </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
     </r>
     <r>
       <rPr>
@@ -1456,13 +1325,41 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">1, AAIJ, 9
-2, AAIS, 6
-3, Ulink Myanmar, 4
-4, Blue Dot, 3
-4, Dyah, 3
+      <t xml:space="preserve">
+Dec 2014 -  0 Indo Visa : 0 Non-Indo Visa
+                    / No result 
+Jan 2015 -  7 Indo Visa : 5 Non-Indo Visa
+Increase / Decrease - 
 </t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Jan 2014  - 0 Indo Visa :   0 Non-Indo Visa       
+                  / No result
+Jan 2015 - 7 Indo Visa : 5 Non-Indo Visa
+Increase / Decrease - </t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1472,8 +1369,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-Rank 6 : 2 Cases</t>
+      <t>Rank, Doctor, Number of Appointment, Clinic, Specialty</t>
     </r>
     <r>
       <rPr>
@@ -1484,13 +1380,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Andreas
-EMA
-Mostafizur
-Priscilla Yu Miao
-ULINK
-US Emb
-Veron
+1, Dede Selamat Sutedja, 3, The Singapore Gastro Liver Internist Centre, Medicine - Gastroenterology
 </t>
     </r>
     <r>
@@ -1502,7 +1392,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Rank 13: 1 Case</t>
+      <t xml:space="preserve">Rank 2 Number of Appointment 1 : </t>
     </r>
     <r>
       <rPr>
@@ -1513,16 +1403,503 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Dr. Sherly
-IndoMed
-Melivon
-Mrs Tan
-Ninik
-SMG</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Clear all data (if any) in database and bootstrap ‘KPI Analysis’ file in the Iteration 8 bootstrap folder </t>
+Brian Lee Pheng Hui
+Chia Yee Tien
+Francis Wong Yoke Hae
+Harry Fok Wing Sang
+Hsieh Wen Son
+Kelvin Thia Teck Joo
+Lee Eu Jin
+Ng Tay Meng
+Ronald Brett
+Sam Peh Oon Hui
+Tan Khai Tong
+Timothy Lee Kam-Yiu
+Wong Poo Sing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ranking - Referral </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(true &amp; false for medical and visa)</t>
+    </r>
+  </si>
+  <si>
+    <t>Search Clients</t>
+  </si>
+  <si>
+    <t>Search "Ali" in the Client List search box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The table should display all clients that contains "Ali"  </t>
+  </si>
+  <si>
+    <t>0 - 10</t>
+  </si>
+  <si>
+    <t>11 - 20</t>
+  </si>
+  <si>
+    <t>21 - 30</t>
+  </si>
+  <si>
+    <t>31 - 40</t>
+  </si>
+  <si>
+    <t>41 - 50</t>
+  </si>
+  <si>
+    <t>51 - 60</t>
+  </si>
+  <si>
+    <t>61 - 70</t>
+  </si>
+  <si>
+    <t>71 - 80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80 and above </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dec 2015 - 2 Indo Visa : 4 Non-Indo Visa
+Jan 2016 - 3 Indo Visa : 3 Non-Indo Visa
+Increase / Decrease :  50% Indo Visa : -25% non-indo visa
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Jan 2015  - 7 Indo Visa :   5 Non-Indo Visa
+Jan 2016 - 3 Indo Visa : 3 Non-Indo Visa
+Increase / Decrease : -57% visa :  -40% non-visa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+May 2016 -  5 Indo Visa : 1 Non-Indo Visa
+June 2016 -  2 Indo Visa : 2 Non-Indo Visa
+Increase / Decrease : -60% indo : 100% non-indo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+June 2015  -  7 Indo Visa :  4  Non-Indo Visa
+June 2016 -  2 Indo Visa : 2 Non-Indo Visa
+Increase / Decrease : -72% : -50% </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Nov 2016 - 0 Indo Visa : 3 Non-Indo Visa
+Dec 2016 - 11 Indo Visa : 8 Non-Indo Visa
+Increase / Decrease  - : 167% non-indo 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dec 2015  - 2 Indo Visa :  4 Non-Indo Visa
+Dec 2016 - 11 Indo Visa : 8 Non-Indo Visa
+Increase / Decrease: 450% : 100% </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dec 2014 -  0 Inpatient :  0 Outpatient
+                    / No result 
+Jan 2015 -   10 Inpatient :  19 Outpatient
+Increase / Decrease : -   
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Jan 2014  -  0 Inpatient :  0 Outpatient       
+                  / No result
+Jan 2015 -  10 Inpatient : 19  Outpatient
+Increase / Decrease : - </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dec 2015 - 5 Inpatient : 27 Outpatient
+Jan 2016 -  7 Inpatient : 25 Outpatient
+Increase / Decrease 40%: -8%
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Jan 2015  - 10 Inpatient : 19  Outpatient
+Jan 2016 -  7 Inpatient : 25 Outpatient
+Increase / Decrease : -30% : 32% </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Month </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+May 2016 - 10 Inpatient : 26 Outpatient
+June 2016 - 5 Inpatient : 7 Outpatient
+Increase / Decrease : -50% : -73% 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+June 2015  - 11 Inpatient : 13 Outpatient
+June 2016 -  5 Inpatient : 7 Outpatient
+Increase / Decrease : -54% : -46% </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Compare with Previous Month</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Nov 2016 - 10 Inpatient : 14 Outpatient
+Dec 2016 - 8 Inpatient : 19 Outpatient
+Increase / Decrease  :   -20% :36% 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Compare with Previous Year </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Dec 2015  -5 Inpatient : 27 Outpatient
+Dec 2016 - 8 Inpatient : 19 Outpatient
+Increase / Decrease - 60% : -30%</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number  3        :    3          :  32
+Gender% 50    :    50
+Overall%              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number     3     :      4        : 25
+Gender %  43   :   57    
+Overall%           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   1      :        4      :       37
+Gender %  20  :  80    
+Overall%              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   14  :  13 : 95 
+Gender % 52 : 48      
+Overall%             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number  11   : 8 : 97 
+Gender %  58 :   42  
+Overall%       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   18       :     5         : 83 
+Gender %      78 : 22
+Overall%              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   7  :   4   : 63
+Gender %     64 : 36  
+Overall%        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   4      :     2          :      28 
+Gender %   67 : 33    
+Overall%           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 Male : Female : Unknown
+Number   0       :  2            : 5 
+Gender %   0 : 100   
+Overall%             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">569 Clients with Age without Gender </t>
+  </si>
+  <si>
+    <t xml:space="preserve">106 Clients with Age and Gender </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 Female with no bd, 1 male with no bd, 100 clients without bd and gender </t>
+  </si>
+  <si>
+    <t xml:space="preserve">[NEED RECONFIRM] 668 Unique Clients </t>
+  </si>
+  <si>
+    <t>Current Iteration: 9</t>
   </si>
   <si>
     <r>
@@ -1560,7 +1937,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Rank 5 - Number of Appointment 1 :</t>
+      <t>Rank 2 - Number of Appointment 1 :</t>
     </r>
     <r>
       <rPr>
@@ -1588,60 +1965,6 @@
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dec 2014 -  0 Indo Visa : 0 Non-Indo Visa
-                    / No result 
-Jan 2015 -  7 Indo Visa : 5 Non-Indo Visa
-Increase / Decrease - 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Jan 2014  - 0 Indo Visa :   0 Non-Indo Visa       
-                  / No result
-Jan 2015 - 7 Indo Visa : 5 Non-Indo Visa
-Increase / Decrease - </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -1674,7 +1997,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Rank 5 - Number of Appointment 1: </t>
+      <t xml:space="preserve">Rank 3 - Number of Appointment 1: </t>
     </r>
     <r>
       <rPr>
@@ -1707,6 +2030,25 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Rank, Specialty, Number of Engagement
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1, Surgery - Orthopaedics, 4
+2, Medicine - Gastroenterology, 3
+2, Surgery - ENT, 3
+3, Medicine - Endocrinology, 2
+3, Medicine - Oncology, 2
+3, Obs &amp; Gynae, 2</t>
+    </r>
+    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -1715,7 +2057,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Rank, Doctor, Number of Appointment, Clinic, Specialty</t>
+      <t xml:space="preserve">
+3, </t>
     </r>
     <r>
       <rPr>
@@ -1725,43 +2068,10 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-1, Dede Selamat Sutedja, 3, The Singapore Gastro Liver Internist Centre, Medicine - Gastroenterology
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Rank 2 Number of Appointment 1 : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Brian Lee Pheng Hui
-Chia Yee Tien
-Francis Wong Yoke Hae
-Harry Fok Wing Sang
-Hsieh Wen Son
-Kelvin Thia Teck Joo
-Lee Eu Jin
-Ng Tay Meng
-Ronald Brett
-Sam Peh Oon Hui
-Tan Khai Tong
-Timothy Lee Kam-Yiu
-Wong Poo Sing</t>
+      <t>Surgery - General, 2
+4, Medicine - Cardiology, 1
+4, Medicine - Renal, 1
+4, Surgery - Neuro, 1</t>
     </r>
   </si>
   <si>
@@ -1780,7 +2090,7 @@
       <t xml:space="preserve">, Medicine - Gastroenterology, 6
 2, Obs &amp; Gynae, 3
 2, Surgery - Orthopaedics, 3
-4, Dental, 2
+3, Dental, 2
 </t>
     </r>
     <r>
@@ -1792,7 +2102,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Rank 5:</t>
+      <t>Rank 4:</t>
     </r>
     <r>
       <rPr>
@@ -1816,66 +2126,31 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Ranking - Referral </t>
+      <t xml:space="preserve">Rank, Referred By, Number of Referred Cases 
+</t>
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(true &amp; false for medical and visa)</t>
-    </r>
-  </si>
-  <si>
-    <t>Search Clients</t>
-  </si>
-  <si>
-    <t>Search "Ali" in the Client List search box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The table should display all clients that contains "Ali"  </t>
-  </si>
-  <si>
-    <t>0 - 10</t>
-  </si>
-  <si>
-    <t>11 - 20</t>
-  </si>
-  <si>
-    <t>21 - 30</t>
-  </si>
-  <si>
-    <t>31 - 40</t>
-  </si>
-  <si>
-    <t>41 - 50</t>
-  </si>
-  <si>
-    <t>51 - 60</t>
-  </si>
-  <si>
-    <t>61 - 70</t>
-  </si>
-  <si>
-    <t>71 - 80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">80 and above </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
+      <t xml:space="preserve">1. Melivon, 7
+2, Mostfizur, 4
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rank 3: 3 Cases</t>
     </r>
     <r>
       <rPr>
@@ -1886,22 +2161,22 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Dec 2015 - 2 Indo Visa : 4 Non-Indo Visa
-Jan 2016 - 3 Indo Visa : 3 Non-Indo Visa
-Increase / Decrease :  50% Indo Visa : -25% non-indo visa
+Andreas
+Ninik
+SMG 
 </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Compare with Previous Year </t>
+Rank 4: 2 Cases</t>
     </r>
     <r>
       <rPr>
@@ -1912,22 +2187,23 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Jan 2015  - 7 Indo Visa :   5 Non-Indo Visa
-Jan 2016 - 3 Indo Visa : 3 Non-Indo Visa
-Increase / Decrease : -57% visa :  -40% non-visa</t>
-    </r>
-  </si>
-  <si>
+AAIJ
+EMA
+ULINK
+US Emb
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
+      <t xml:space="preserve">
+Rank 5 : 1 Case</t>
     </r>
     <r>
       <rPr>
@@ -1938,22 +2214,42 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-May 2016 -  5 Indo Visa : 1 Non-Indo Visa
-June 2016 -  2 Indo Visa : 2 Non-Indo Visa
-Increase / Decrease : -60% indo : 100% non-indo
+AAIS
+Dr. Sherly
+MedikaPlaza</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rank, Referred By, Number of Referred Cases 
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve">1, AAIJ, 9
+2, AAIS, 6
+3, Ulink Myanmar, 4
+4, Blue Dot, 3
+4, Dyah, 3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
-Compare with Previous Year </t>
+Rank 5 : 2 Cases</t>
     </r>
     <r>
       <rPr>
@@ -1964,22 +2260,25 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-June 2015  -  7 Indo Visa :  4  Non-Indo Visa
-June 2016 -  2 Indo Visa : 2 Non-Indo Visa
-Increase / Decrease : -72% : -50% </t>
-    </r>
-  </si>
-  <si>
+Andreas
+EMA
+Mostafizur
+Priscilla Yu Miao
+ULINK
+US Emb
+Veron
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
+      <t>Rank 6: 1 Case</t>
     </r>
     <r>
       <rPr>
@@ -1990,312 +2289,13 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Nov 2016 - 0 Indo Visa : 3 Non-Indo Visa
-Dec 2016 - 11 Indo Visa : 8 Non-Indo Visa
-Increase / Decrease  - : 167% non-indo 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dec 2015  - 2 Indo Visa :  4 Non-Indo Visa
-Dec 2016 - 11 Indo Visa : 8 Non-Indo Visa
-Increase / Decrease: 450% : 100% </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dec 2014 -  0 Inpatient :  0 Outpatient
-                    / No result 
-Jan 2015 -   10 Inpatient :  19 Outpatient
-Increase / Decrease : -   
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Jan 2014  -  0 Inpatient :  0 Outpatient       
-                  / No result
-Jan 2015 -  10 Inpatient : 19  Outpatient
-Increase / Decrease : - </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dec 2015 - 5 Inpatient : 27 Outpatient
-Jan 2016 -  7 Inpatient : 25 Outpatient
-Increase / Decrease 40%: -8%
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Jan 2015  - 10 Inpatient : 19  Outpatient
-Jan 2016 -  7 Inpatient : 25 Outpatient
-Increase / Decrease : -30% : 32% </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Month </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-May 2016 - 10 Inpatient : 26 Outpatient
-June 2016 - 5 Inpatient : 7 Outpatient
-Increase / Decrease : -50% : -73% 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-June 2015  - 11 Inpatient : 13 Outpatient
-June 2016 -  5 Inpatient : 7 Outpatient
-Increase / Decrease : -54% : -46% </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Compare with Previous Month</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-Nov 2016 - 10 Inpatient : 14 Outpatient
-Dec 2016 - 8 Inpatient : 19 Outpatient
-Increase / Decrease  :   -20% :36% 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Compare with Previous Year </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Dec 2015  -5 Inpatient : 27 Outpatient
-Dec 2016 - 8 Inpatient : 19 Outpatient
-Increase / Decrease - 60% : -30%</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number  3        :    3          :  32
-Gender% 50    :    50
-Overall%              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number     3     :      4        : 25
-Gender %  43   :   57    
-Overall%           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number   1      :        4      :       37
-Gender %  20  :  80    
-Overall%              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number   14  :  13 : 95 
-Gender % 52 : 48      
-Overall%             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number  11   : 8 : 97 
-Gender %  58 :   42  
-Overall%       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number   18       :     5         : 83 
-Gender %      78 : 22
-Overall%              </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number   7  :   4   : 63
-Gender %     64 : 36  
-Overall%        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number   4      :     2          :      28 
-Gender %   67 : 33    
-Overall%           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 Male : Female : Unknown
-Number   0       :  2            : 5 
-Gender %   0 : 100   
-Overall%             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">569 Clients with Age without Gender </t>
-  </si>
-  <si>
-    <t xml:space="preserve">106 Clients with Age and Gender </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6 Female with no bd, 1 male with no bd, 100 clients without bd and gender </t>
-  </si>
-  <si>
-    <t xml:space="preserve">[NEED RECONFIRM] 668 Unique Clients </t>
-  </si>
-  <si>
-    <t>Current Iteration: 9</t>
+Dr. Sherly
+IndoMed
+Melivon
+Mrs Tan
+Ninik
+SMG</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2988,7 +2988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3001,42 +3001,42 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B4" s="22"/>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="19" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="19" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3061,10 +3061,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -3072,10 +3072,10 @@
     <row r="9" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="23" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -3083,10 +3083,10 @@
     <row r="10" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="23" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -3094,10 +3094,10 @@
     <row r="11" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="23" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
@@ -3105,10 +3105,10 @@
     <row r="12" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="23" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
@@ -3116,10 +3116,10 @@
     <row r="13" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="23" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
@@ -3127,10 +3127,10 @@
     <row r="14" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="23" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -3138,10 +3138,10 @@
     <row r="15" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A15" s="7"/>
       <c r="B15" s="23" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
@@ -3149,10 +3149,10 @@
     <row r="16" spans="1:5" ht="62" x14ac:dyDescent="0.35">
       <c r="A16" s="7"/>
       <c r="B16" s="23" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -3167,8 +3167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3192,7 +3192,7 @@
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="18"/>
@@ -3231,7 +3231,7 @@
         <v>238</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -3247,7 +3247,7 @@
         <v>239</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -3263,7 +3263,7 @@
         <v>240</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -3279,7 +3279,7 @@
         <v>242</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>243</v>
+        <v>290</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -3289,13 +3289,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -3308,10 +3308,10 @@
         <v>241</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>259</v>
+        <v>291</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -3321,13 +3321,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -3337,13 +3337,13 @@
         <v>8</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -3353,13 +3353,13 @@
         <v>9</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>239</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -3369,13 +3369,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>240</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -3531,7 +3531,7 @@
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B2" s="13"/>
     </row>
@@ -3566,7 +3566,7 @@
         <v>228</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
@@ -3580,7 +3580,7 @@
         <v>229</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
@@ -3594,7 +3594,7 @@
         <v>230</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
@@ -3608,7 +3608,7 @@
         <v>231</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="170.5" x14ac:dyDescent="0.35">
@@ -3622,7 +3622,7 @@
         <v>233</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
@@ -3636,7 +3636,7 @@
         <v>234</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
@@ -3650,7 +3650,7 @@
         <v>235</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="139.5" x14ac:dyDescent="0.35">
@@ -3664,7 +3664,7 @@
         <v>236</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -4203,13 +4203,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E8" s="2"/>
     </row>
